--- a/file/TGT-413-Motel.xlsx
+++ b/file/TGT-413-Motel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Taoyuan/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296C99D9-E321-EA48-B50F-BCBEE101CAFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210DB1B-0E3C-2541-96D4-1FAE129E32E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21040" yWindow="4360" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="24480" yWindow="5620" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
     <t>http://www.idomotel.com.tw/</t>
   </si>
   <si>
-    <t xml:space="preserve">886 - 3 - 315 - 1666 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fig/TGT-4131-Motel-01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +169,31 @@
   </si>
   <si>
     <t>新屋區</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>桃園市中壢區中華路二段152號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">03-315-1666 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGT-4131-Motel-05.jpg</t>
+  </si>
+  <si>
+    <t>7星國際汽車旅館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.xn--7-bg0b367bti1c.tw/</t>
+  </si>
+  <si>
+    <t>03-463-6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -583,7 +604,7 @@
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -641,23 +662,23 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16">
@@ -668,22 +689,22 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16">
@@ -694,22 +715,22 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16">
@@ -720,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>15</v>
@@ -735,19 +756,43 @@
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="80" customHeight="1">
-      <c r="D6" s="5"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2480</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="D7" s="5"/>
